--- a/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/ifo_qoq_matched_errors_first_since_2022_GVA.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/ifo_qoq_matched_errors_first_since_2022_GVA.xlsx
@@ -689,6 +689,9 @@
       <c r="I8">
         <v>0.4581899536236866</v>
       </c>
+      <c r="J8">
+        <v>0.1485032540344368</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -715,6 +718,9 @@
       <c r="H9">
         <v>0.4993544712360053</v>
       </c>
+      <c r="I9">
+        <v>0.1734537503564907</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -738,6 +744,9 @@
       <c r="G10">
         <v>0.5498872108380217</v>
       </c>
+      <c r="H10">
+        <v>0.2422520263583712</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -758,6 +767,9 @@
       <c r="F11">
         <v>0.5893544712360053</v>
       </c>
+      <c r="G11">
+        <v>0.2534537503564908</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -775,6 +787,9 @@
       <c r="E12">
         <v>0.6193544712360053</v>
       </c>
+      <c r="F12">
+        <v>0.381103329907261</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -789,6 +804,9 @@
       <c r="D13">
         <v>0.3498282003904753</v>
       </c>
+      <c r="E13">
+        <v>0.04235042473292953</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -800,6 +818,9 @@
       <c r="C14">
         <v>0.4001948507169847</v>
       </c>
+      <c r="D14">
+        <v>0.07961008106920435</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -808,10 +829,16 @@
       <c r="B15">
         <v>0.2465333054190486</v>
       </c>
+      <c r="C15">
+        <v>0.02893023050567838</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.02940328597706714</v>
       </c>
     </row>
   </sheetData>
